--- a/data_month/zb/工业/按行业分工业企业主要经济指标(2018-至今)/工业企业利息支出.xlsx
+++ b/data_month/zb/工业/按行业分工业企业主要经济指标(2018-至今)/工业企业利息支出.xlsx
@@ -2006,7 +2006,7 @@
         <v>12.8</v>
       </c>
       <c r="AO3" t="n">
-        <v>2.3</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AP3" t="n">
         <v>2.5</v>
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.3</v>
+        <v>19.1</v>
       </c>
       <c r="C4" t="n">
         <v>109.2</v>
@@ -2526,7 +2526,7 @@
         <v>12</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.200000000000001</v>
+        <v>1.600000000000003</v>
       </c>
       <c r="AG4" t="n">
         <v>14</v>
@@ -2616,7 +2616,7 @@
         <v>10.4</v>
       </c>
       <c r="BJ4" t="n">
-        <v>20.50000000000001</v>
+        <v>16.90000000000001</v>
       </c>
       <c r="BK4" t="n">
         <v>137.5</v>
@@ -2625,7 +2625,7 @@
         <v>17.7</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.2999999999999998</v>
+        <v>0.0999999999999996</v>
       </c>
       <c r="BN4" t="n">
         <v>3.9</v>
@@ -2670,7 +2670,7 @@
         <v>7.3</v>
       </c>
       <c r="CB4" t="n">
-        <v>35.5</v>
+        <v>35.49999999999998</v>
       </c>
       <c r="CC4" t="n">
         <v>160</v>
@@ -2688,7 +2688,7 @@
         <v>10</v>
       </c>
       <c r="CH4" t="n">
-        <v>29.89999999999999</v>
+        <v>14.30000000000001</v>
       </c>
       <c r="CI4" t="n">
         <v>135.3</v>
@@ -2715,7 +2715,7 @@
         <v>8.4</v>
       </c>
       <c r="CQ4" t="n">
-        <v>6.399999999999999</v>
+        <v>2.199999999999989</v>
       </c>
       <c r="CR4" t="n">
         <v>30.3</v>
@@ -2724,7 +2724,7 @@
         <v>13.9</v>
       </c>
       <c r="CT4" t="n">
-        <v>35.20000000000002</v>
+        <v>6.800000000000022</v>
       </c>
       <c r="CU4" t="n">
         <v>160.4</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="DL4" t="n">
-        <v>15.90000000000001</v>
+        <v>4.900000000000009</v>
       </c>
       <c r="DM4" t="n">
         <v>90.40000000000001</v>
@@ -2992,7 +2992,7 @@
         <v>24.2</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7999999999999989</v>
+        <v>0.3999999999999986</v>
       </c>
       <c r="F5" t="n">
         <v>19.4</v>
@@ -3019,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>27.69999999999999</v>
+        <v>23.70000000000003</v>
       </c>
       <c r="O5" t="n">
         <v>149.5</v>
@@ -3046,7 +3046,7 @@
         <v>7.4</v>
       </c>
       <c r="W5" t="n">
-        <v>8.799999999999997</v>
+        <v>8.400000000000006</v>
       </c>
       <c r="X5" t="n">
         <v>45.7</v>
@@ -3055,7 +3055,7 @@
         <v>5.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>5.09999999999998</v>
+        <v>0.2999999999999581</v>
       </c>
       <c r="AA5" t="n">
         <v>83.90000000000001</v>
@@ -3082,7 +3082,7 @@
         <v>10.7</v>
       </c>
       <c r="AI5" t="n">
-        <v>109.5000000000005</v>
+        <v>102.7000000000003</v>
       </c>
       <c r="AJ5" t="n">
         <v>4692.3</v>
@@ -3091,7 +3091,7 @@
         <v>9.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>1.4</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="AM5" t="n">
         <v>8.5</v>
@@ -3100,7 +3100,7 @@
         <v>19.7</v>
       </c>
       <c r="AO5" t="n">
-        <v>1.800000000000001</v>
+        <v>0.8000000000000014</v>
       </c>
       <c r="AP5" t="n">
         <v>3.7</v>
@@ -3109,7 +3109,7 @@
         <v>-9.800000000000001</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.6999999999999957</v>
+        <v>0.2999999999999902</v>
       </c>
       <c r="AS5" t="n">
         <v>31.9</v>
@@ -3118,7 +3118,7 @@
         <v>12.7</v>
       </c>
       <c r="AU5" t="n">
-        <v>4.999999999999972</v>
+        <v>1.699999999999946</v>
       </c>
       <c r="AV5" t="n">
         <v>226.2</v>
@@ -3127,7 +3127,7 @@
         <v>9.9</v>
       </c>
       <c r="AX5" t="n">
-        <v>2.000000000000004</v>
+        <v>0.9000000000000079</v>
       </c>
       <c r="AY5" t="n">
         <v>23.8</v>
@@ -3136,7 +3136,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.9999999999999964</v>
+        <v>0.9999999999999893</v>
       </c>
       <c r="BB5" t="n">
         <v>23</v>
@@ -3145,7 +3145,7 @@
         <v>1.8</v>
       </c>
       <c r="BD5" t="n">
-        <v>2.69999999999999</v>
+        <v>1.19999999999999</v>
       </c>
       <c r="BE5" t="n">
         <v>78.7</v>
@@ -3172,7 +3172,7 @@
         <v>23.3</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.7999999999999998</v>
+        <v>0.3000000000000003</v>
       </c>
       <c r="BN5" t="n">
         <v>4.6</v>
@@ -3181,7 +3181,7 @@
         <v>-19.3</v>
       </c>
       <c r="BP5" t="n">
-        <v>83.90000000000003</v>
+        <v>41.5</v>
       </c>
       <c r="BQ5" t="n">
         <v>408.8</v>
@@ -3199,7 +3199,7 @@
         <v>11.7</v>
       </c>
       <c r="BV5" t="n">
-        <v>24.40000000000001</v>
+        <v>11.40000000000001</v>
       </c>
       <c r="BW5" t="n">
         <v>951</v>
@@ -3208,7 +3208,7 @@
         <v>6</v>
       </c>
       <c r="BY5" t="n">
-        <v>19.70000000000002</v>
+        <v>9.500000000000036</v>
       </c>
       <c r="BZ5" t="n">
         <v>873.6</v>
@@ -3244,7 +3244,7 @@
         <v>3.8</v>
       </c>
       <c r="CK5" t="n">
-        <v>12.10000000000001</v>
+        <v>10.29999999999999</v>
       </c>
       <c r="CL5" t="n">
         <v>60.4</v>
@@ -3271,7 +3271,7 @@
         <v>12.1</v>
       </c>
       <c r="CT5" t="n">
-        <v>34</v>
+        <v>12.99999999999998</v>
       </c>
       <c r="CU5" t="n">
         <v>198.9</v>
@@ -3280,7 +3280,7 @@
         <v>19.5</v>
       </c>
       <c r="CW5" t="n">
-        <v>8.699999999999989</v>
+        <v>7.499999999999943</v>
       </c>
       <c r="CX5" t="n">
         <v>120</v>
@@ -3298,7 +3298,7 @@
         <v>6.9</v>
       </c>
       <c r="DC5" t="n">
-        <v>8.299999999999997</v>
+        <v>6.499999999999993</v>
       </c>
       <c r="DD5" t="n">
         <v>44.5</v>
@@ -3325,7 +3325,7 @@
         <v>3.3</v>
       </c>
       <c r="DL5" t="n">
-        <v>5.199999999999982</v>
+        <v>0.2999999999999732</v>
       </c>
       <c r="DM5" t="n">
         <v>111.5</v>
@@ -3334,7 +3334,7 @@
         <v>10.7</v>
       </c>
       <c r="DO5" t="n">
-        <v>8.399999999999999</v>
+        <v>1.799999999999997</v>
       </c>
       <c r="DP5" t="n">
         <v>48.2</v>
@@ -3352,7 +3352,7 @@
         <v>8.4</v>
       </c>
       <c r="DU5" t="n">
-        <v>2.600000000000001</v>
+        <v>1.400000000000003</v>
       </c>
       <c r="DV5" t="n">
         <v>14.7</v>
@@ -3361,7 +3361,7 @@
         <v>15.7</v>
       </c>
       <c r="DX5" t="n">
-        <v>1.399999999999991</v>
+        <v>0.9999999999999787</v>
       </c>
       <c r="DY5" t="n">
         <v>46.7</v>
@@ -3370,7 +3370,7 @@
         <v>10.9</v>
       </c>
       <c r="EA5" t="n">
-        <v>62.5</v>
+        <v>31.9</v>
       </c>
       <c r="EB5" t="n">
         <v>356.5</v>
@@ -3379,7 +3379,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="ED5" t="n">
-        <v>10.4</v>
+        <v>10.2</v>
       </c>
       <c r="EE5" t="n">
         <v>54.5</v>
@@ -3530,7 +3530,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22.09999999999999</v>
+        <v>6.900000000000009</v>
       </c>
       <c r="C6" t="n">
         <v>155.3</v>
@@ -3539,7 +3539,7 @@
         <v>12</v>
       </c>
       <c r="E6" t="n">
-        <v>2.5</v>
+        <v>1.100000000000002</v>
       </c>
       <c r="F6" t="n">
         <v>24.7</v>
@@ -3548,7 +3548,7 @@
         <v>27.3</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="I6" t="n">
         <v>8.5</v>
@@ -3575,7 +3575,7 @@
         <v>12</v>
       </c>
       <c r="Q6" t="n">
-        <v>579.5</v>
+        <v>415.3000000000002</v>
       </c>
       <c r="R6" t="n">
         <v>3901.9</v>
@@ -3584,7 +3584,7 @@
         <v>11.6</v>
       </c>
       <c r="T6" t="n">
-        <v>71.69999999999999</v>
+        <v>52.10000000000007</v>
       </c>
       <c r="U6" t="n">
         <v>464</v>
@@ -3602,7 +3602,7 @@
         <v>5.2</v>
       </c>
       <c r="Z6" t="n">
-        <v>15.2</v>
+        <v>7.40000000000005</v>
       </c>
       <c r="AA6" t="n">
         <v>106.7</v>
@@ -3620,7 +3620,7 @@
         <v>9.6</v>
       </c>
       <c r="AF6" t="n">
-        <v>3</v>
+        <v>0.4000000000000061</v>
       </c>
       <c r="AG6" t="n">
         <v>21.1</v>
@@ -3629,7 +3629,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AI6" t="n">
-        <v>865.5</v>
+        <v>649.8999999999992</v>
       </c>
       <c r="AJ6" t="n">
         <v>5799.3</v>
@@ -3638,7 +3638,7 @@
         <v>10.2</v>
       </c>
       <c r="AL6" t="n">
-        <v>1.5</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="AM6" t="n">
         <v>10.6</v>
@@ -3665,7 +3665,7 @@
         <v>14</v>
       </c>
       <c r="AU6" t="n">
-        <v>3.899999999999999</v>
+        <v>2.200000000000053</v>
       </c>
       <c r="AV6" t="n">
         <v>275.9</v>
@@ -3674,7 +3674,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="AX6" t="n">
-        <v>4.199999999999999</v>
+        <v>1.299999999999987</v>
       </c>
       <c r="AY6" t="n">
         <v>30.1</v>
@@ -3683,7 +3683,7 @@
         <v>6.7</v>
       </c>
       <c r="BA6" t="n">
-        <v>4</v>
+        <v>2.000000000000011</v>
       </c>
       <c r="BB6" t="n">
         <v>27.8</v>
@@ -3692,7 +3692,7 @@
         <v>0</v>
       </c>
       <c r="BD6" t="n">
-        <v>15.80000000000001</v>
+        <v>11.90000000000003</v>
       </c>
       <c r="BE6" t="n">
         <v>95.90000000000001</v>
@@ -3701,7 +3701,7 @@
         <v>7</v>
       </c>
       <c r="BG6" t="n">
-        <v>8.099999999999994</v>
+        <v>0.6999999999999962</v>
       </c>
       <c r="BH6" t="n">
         <v>55.5</v>
@@ -3728,7 +3728,7 @@
         <v>-10.8</v>
       </c>
       <c r="BP6" t="n">
-        <v>68.29999999999995</v>
+        <v>5.599999999999937</v>
       </c>
       <c r="BQ6" t="n">
         <v>511.7</v>
@@ -3737,7 +3737,7 @@
         <v>6.3</v>
       </c>
       <c r="BS6" t="n">
-        <v>6.200000000000003</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="BT6" t="n">
         <v>39.5</v>
@@ -3746,7 +3746,7 @@
         <v>5.3</v>
       </c>
       <c r="BV6" t="n">
-        <v>184.3000000000002</v>
+        <v>142.0000000000002</v>
       </c>
       <c r="BW6" t="n">
         <v>1185</v>
@@ -3755,7 +3755,7 @@
         <v>7.2</v>
       </c>
       <c r="BY6" t="n">
-        <v>170.1000000000001</v>
+        <v>135.8000000000001</v>
       </c>
       <c r="BZ6" t="n">
         <v>1089.9</v>
@@ -3764,7 +3764,7 @@
         <v>7.2</v>
       </c>
       <c r="CB6" t="n">
-        <v>34.59999999999999</v>
+        <v>20.40000000000001</v>
       </c>
       <c r="CC6" t="n">
         <v>254.4</v>
@@ -3782,7 +3782,7 @@
         <v>7.6</v>
       </c>
       <c r="CH6" t="n">
-        <v>30.5</v>
+        <v>26.29999999999998</v>
       </c>
       <c r="CI6" t="n">
         <v>190.9</v>
@@ -3800,7 +3800,7 @@
         <v>-7.5</v>
       </c>
       <c r="CN6" t="n">
-        <v>27</v>
+        <v>20.8</v>
       </c>
       <c r="CO6" t="n">
         <v>169.4</v>
@@ -3809,7 +3809,7 @@
         <v>4.4</v>
       </c>
       <c r="CQ6" t="n">
-        <v>5.899999999999999</v>
+        <v>3.699999999999996</v>
       </c>
       <c r="CR6" t="n">
         <v>45.5</v>
@@ -3827,7 +3827,7 @@
         <v>26</v>
       </c>
       <c r="CW6" t="n">
-        <v>15.69999999999999</v>
+        <v>7.000000000000002</v>
       </c>
       <c r="CX6" t="n">
         <v>149.9</v>
@@ -3836,7 +3836,7 @@
         <v>10.3</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.8999999999999915</v>
+        <v>0.09999999999997311</v>
       </c>
       <c r="DA6" t="n">
         <v>107.5</v>
@@ -3854,7 +3854,7 @@
         <v>7.5</v>
       </c>
       <c r="DF6" t="n">
-        <v>101.8</v>
+        <v>95.8</v>
       </c>
       <c r="DG6" t="n">
         <v>712.4</v>
@@ -3863,7 +3863,7 @@
         <v>7.9</v>
       </c>
       <c r="DI6" t="n">
-        <v>0.9000000000000004</v>
+        <v>0.6999999999999984</v>
       </c>
       <c r="DJ6" t="n">
         <v>7.9</v>
@@ -3872,7 +3872,7 @@
         <v>3.9</v>
       </c>
       <c r="DL6" t="n">
-        <v>8.500000000000014</v>
+        <v>3.300000000000032</v>
       </c>
       <c r="DM6" t="n">
         <v>139</v>
@@ -3881,7 +3881,7 @@
         <v>14.1</v>
       </c>
       <c r="DO6" t="n">
-        <v>7.299999999999997</v>
+        <v>5.5</v>
       </c>
       <c r="DP6" t="n">
         <v>62.4</v>
@@ -3890,7 +3890,7 @@
         <v>7.6</v>
       </c>
       <c r="DR6" t="n">
-        <v>36.30000000000001</v>
+        <v>25.69999999999996</v>
       </c>
       <c r="DS6" t="n">
         <v>242.7</v>
@@ -3908,7 +3908,7 @@
         <v>22.2</v>
       </c>
       <c r="DX6" t="n">
-        <v>6.600000000000001</v>
+        <v>4.000000000000025</v>
       </c>
       <c r="DY6" t="n">
         <v>57.6</v>
@@ -3926,7 +3926,7 @@
         <v>11.4</v>
       </c>
       <c r="ED6" t="n">
-        <v>12.90000000000001</v>
+        <v>2.500000000000009</v>
       </c>
       <c r="EE6" t="n">
         <v>75.7</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.90000000000001</v>
+        <v>4.400000000000009</v>
       </c>
       <c r="C7" t="n">
         <v>197.5</v>
@@ -4086,7 +4086,7 @@
         <v>22.9</v>
       </c>
       <c r="E7" t="n">
-        <v>2.5</v>
+        <v>0.7999999999999989</v>
       </c>
       <c r="F7" t="n">
         <v>27.7</v>
@@ -4095,7 +4095,7 @@
         <v>26.5</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4000000000000004</v>
+        <v>0.3000000000000003</v>
       </c>
       <c r="I7" t="n">
         <v>10</v>
@@ -4122,7 +4122,7 @@
         <v>15.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>562.6999999999998</v>
+        <v>65.29999999999973</v>
       </c>
       <c r="R7" t="n">
         <v>4578.3</v>
@@ -4131,7 +4131,7 @@
         <v>12.3</v>
       </c>
       <c r="T7" t="n">
-        <v>63.10000000000002</v>
+        <v>1.199999999999996</v>
       </c>
       <c r="U7" t="n">
         <v>537.3</v>
@@ -4167,7 +4167,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="AF7" t="n">
-        <v>3</v>
+        <v>1.299999999999997</v>
       </c>
       <c r="AG7" t="n">
         <v>24.5</v>
@@ -4176,7 +4176,7 @@
         <v>9.4</v>
       </c>
       <c r="AI7" t="n">
-        <v>858.8999999999996</v>
+        <v>102.9000000000001</v>
       </c>
       <c r="AJ7" t="n">
         <v>6779.3</v>
@@ -4185,7 +4185,7 @@
         <v>10.6</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="AM7" t="n">
         <v>13</v>
@@ -4203,7 +4203,7 @@
         <v>-15.2</v>
       </c>
       <c r="AR7" t="n">
-        <v>5.600000000000001</v>
+        <v>5</v>
       </c>
       <c r="AS7" t="n">
         <v>44.7</v>
@@ -4212,7 +4212,7 @@
         <v>9.6</v>
       </c>
       <c r="AU7" t="n">
-        <v>10.1</v>
+        <v>2.300000000000002</v>
       </c>
       <c r="AV7" t="n">
         <v>334.4</v>
@@ -4230,7 +4230,7 @@
         <v>17.6</v>
       </c>
       <c r="BA7" t="n">
-        <v>3.499999999999996</v>
+        <v>0.499999999999992</v>
       </c>
       <c r="BB7" t="n">
         <v>31.8</v>
@@ -4239,7 +4239,7 @@
         <v>0</v>
       </c>
       <c r="BD7" t="n">
-        <v>14.8</v>
+        <v>1.699999999999982</v>
       </c>
       <c r="BE7" t="n">
         <v>114.9</v>
@@ -4257,7 +4257,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="BJ7" t="n">
-        <v>32.59999999999999</v>
+        <v>30.39999999999999</v>
       </c>
       <c r="BK7" t="n">
         <v>248.2</v>
@@ -4266,7 +4266,7 @@
         <v>21.3</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.3000000000000009</v>
+        <v>0.1000000000000007</v>
       </c>
       <c r="BN7" t="n">
         <v>6.9</v>
@@ -4320,7 +4320,7 @@
         <v>19.3</v>
       </c>
       <c r="CE7" t="n">
-        <v>5.700000000000003</v>
+        <v>4.900000000000006</v>
       </c>
       <c r="CF7" t="n">
         <v>40.4</v>
@@ -4338,7 +4338,7 @@
         <v>9</v>
       </c>
       <c r="CK7" t="n">
-        <v>10.5</v>
+        <v>8.700000000000021</v>
       </c>
       <c r="CL7" t="n">
         <v>81.5</v>
@@ -4365,7 +4365,7 @@
         <v>12.5</v>
       </c>
       <c r="CT7" t="n">
-        <v>25.90000000000001</v>
+        <v>23.90000000000001</v>
       </c>
       <c r="CU7" t="n">
         <v>296.3</v>
@@ -4383,7 +4383,7 @@
         <v>15.6</v>
       </c>
       <c r="CZ7" t="n">
-        <v>18.19999999999999</v>
+        <v>16.80000000000002</v>
       </c>
       <c r="DA7" t="n">
         <v>126.1</v>
@@ -4392,7 +4392,7 @@
         <v>7.8</v>
       </c>
       <c r="DC7" t="n">
-        <v>7.899999999999999</v>
+        <v>6.29999999999999</v>
       </c>
       <c r="DD7" t="n">
         <v>63.7</v>
@@ -4401,7 +4401,7 @@
         <v>6</v>
       </c>
       <c r="DF7" t="n">
-        <v>100.8000000000001</v>
+        <v>2.000000000000099</v>
       </c>
       <c r="DG7" t="n">
         <v>822</v>
@@ -4419,7 +4419,7 @@
         <v>10.6</v>
       </c>
       <c r="DL7" t="n">
-        <v>4.999999999999986</v>
+        <v>1.699999999999954</v>
       </c>
       <c r="DM7" t="n">
         <v>151</v>
@@ -4446,7 +4446,7 @@
         <v>7.7</v>
       </c>
       <c r="DU7" t="n">
-        <v>1.599999999999998</v>
+        <v>1.199999999999998</v>
       </c>
       <c r="DV7" t="n">
         <v>20.7</v>
@@ -4473,7 +4473,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="ED7" t="n">
-        <v>5.899999999999991</v>
+        <v>3.399999999999982</v>
       </c>
       <c r="EE7" t="n">
         <v>88.09999999999999</v>
@@ -4642,7 +4642,7 @@
         <v>31.6</v>
       </c>
       <c r="H8" t="n">
-        <v>5.399999999999999</v>
+        <v>4.599999999999998</v>
       </c>
       <c r="I8" t="n">
         <v>10.8</v>
@@ -4696,7 +4696,7 @@
         <v>12</v>
       </c>
       <c r="Z8" t="n">
-        <v>16.89999999999999</v>
+        <v>13.29999999999999</v>
       </c>
       <c r="AA8" t="n">
         <v>143.7</v>
@@ -4759,7 +4759,7 @@
         <v>9.1</v>
       </c>
       <c r="AU8" t="n">
-        <v>41.20000000000005</v>
+        <v>24.90000000000005</v>
       </c>
       <c r="AV8" t="n">
         <v>388.5</v>
@@ -4768,7 +4768,7 @@
         <v>7.6</v>
       </c>
       <c r="AX8" t="n">
-        <v>4.700000000000003</v>
+        <v>1.899999999999999</v>
       </c>
       <c r="AY8" t="n">
         <v>42.3</v>
@@ -4795,7 +4795,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="BG8" t="n">
-        <v>1.800000000000013</v>
+        <v>0.4000000000000072</v>
       </c>
       <c r="BH8" t="n">
         <v>71.59999999999999</v>
@@ -4813,7 +4813,7 @@
         <v>19.9</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.6999999999999993</v>
+        <v>0.2999999999999977</v>
       </c>
       <c r="BN8" t="n">
         <v>7.7</v>
@@ -4822,7 +4822,7 @@
         <v>-12.5</v>
       </c>
       <c r="BP8" t="n">
-        <v>18.19999999999993</v>
+        <v>2.199999999999696</v>
       </c>
       <c r="BQ8" t="n">
         <v>648.1</v>
@@ -4831,7 +4831,7 @@
         <v>3.5</v>
       </c>
       <c r="BS8" t="n">
-        <v>7.700000000000003</v>
+        <v>3.100000000000005</v>
       </c>
       <c r="BT8" t="n">
         <v>60.1</v>
@@ -4849,7 +4849,7 @@
         <v>6.7</v>
       </c>
       <c r="BY8" t="n">
-        <v>7.900000000000318</v>
+        <v>2.300000000000637</v>
       </c>
       <c r="BZ8" t="n">
         <v>1451.9</v>
@@ -4885,7 +4885,7 @@
         <v>9.9</v>
       </c>
       <c r="CK8" t="n">
-        <v>10.19999999999999</v>
+        <v>0.5999999999999801</v>
       </c>
       <c r="CL8" t="n">
         <v>87.2</v>
@@ -4903,7 +4903,7 @@
         <v>1.7</v>
       </c>
       <c r="CQ8" t="n">
-        <v>5.799999999999997</v>
+        <v>2.599999999999994</v>
       </c>
       <c r="CR8" t="n">
         <v>61.2</v>
@@ -4921,7 +4921,7 @@
         <v>29.3</v>
       </c>
       <c r="CW8" t="n">
-        <v>7.400000000000009</v>
+        <v>3.600000000000009</v>
       </c>
       <c r="CX8" t="n">
         <v>196.8</v>
@@ -4957,7 +4957,7 @@
         <v>5.1</v>
       </c>
       <c r="DI8" t="n">
-        <v>1.6</v>
+        <v>0.2000000000000006</v>
       </c>
       <c r="DJ8" t="n">
         <v>10.4</v>
@@ -4975,7 +4975,7 @@
         <v>15.4</v>
       </c>
       <c r="DO8" t="n">
-        <v>2.599999999999982</v>
+        <v>1.299999999999971</v>
       </c>
       <c r="DP8" t="n">
         <v>78.3</v>
@@ -4984,7 +4984,7 @@
         <v>6</v>
       </c>
       <c r="DR8" t="n">
-        <v>36.5</v>
+        <v>34.10000000000002</v>
       </c>
       <c r="DS8" t="n">
         <v>317.6</v>
@@ -4993,7 +4993,7 @@
         <v>6.5</v>
       </c>
       <c r="DU8" t="n">
-        <v>1.400000000000002</v>
+        <v>3.996802888650564e-15</v>
       </c>
       <c r="DV8" t="n">
         <v>22.9</v>
@@ -5002,7 +5002,7 @@
         <v>16.2</v>
       </c>
       <c r="DX8" t="n">
-        <v>8.199999999999989</v>
+        <v>0.3999999999999706</v>
       </c>
       <c r="DY8" t="n">
         <v>77.7</v>
@@ -5011,7 +5011,7 @@
         <v>14.4</v>
       </c>
       <c r="EA8" t="n">
-        <v>71.39999999999998</v>
+        <v>71.39999999999975</v>
       </c>
       <c r="EB8" t="n">
         <v>587.4</v>
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>18.19999999999999</v>
+        <v>1.199999999999989</v>
       </c>
       <c r="C9" t="n">
         <v>252.3</v>
@@ -5216,7 +5216,7 @@
         <v>12.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>564.6000000000004</v>
+        <v>432.7999999999993</v>
       </c>
       <c r="R9" t="n">
         <v>5899.8</v>
@@ -5225,7 +5225,7 @@
         <v>12</v>
       </c>
       <c r="T9" t="n">
-        <v>75.79999999999995</v>
+        <v>34.79999999999995</v>
       </c>
       <c r="U9" t="n">
         <v>690.9</v>
@@ -5234,7 +5234,7 @@
         <v>6.5</v>
       </c>
       <c r="W9" t="n">
-        <v>8.5</v>
+        <v>7.699999999999971</v>
       </c>
       <c r="X9" t="n">
         <v>87.90000000000001</v>
@@ -5252,7 +5252,7 @@
         <v>14.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.100000000000001</v>
+        <v>0.09999999999999301</v>
       </c>
       <c r="AD9" t="n">
         <v>30.4</v>
@@ -5261,7 +5261,7 @@
         <v>11.8</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.899999999999999</v>
+        <v>1.099999999999995</v>
       </c>
       <c r="AG9" t="n">
         <v>28.3</v>
@@ -5270,7 +5270,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="AI9" t="n">
-        <v>845.1999999999998</v>
+        <v>659.9999999999991</v>
       </c>
       <c r="AJ9" t="n">
         <v>8747.1</v>
@@ -5279,7 +5279,7 @@
         <v>10.2</v>
       </c>
       <c r="AL9" t="n">
-        <v>1.200000000000001</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="AM9" t="n">
         <v>17.9</v>
@@ -5297,7 +5297,7 @@
         <v>-15.1</v>
       </c>
       <c r="AR9" t="n">
-        <v>5.100000000000001</v>
+        <v>3.100000000000001</v>
       </c>
       <c r="AS9" t="n">
         <v>57</v>
@@ -5315,7 +5315,7 @@
         <v>6.5</v>
       </c>
       <c r="AX9" t="n">
-        <v>3.799999999999997</v>
+        <v>0.499999999999996</v>
       </c>
       <c r="AY9" t="n">
         <v>46.8</v>
@@ -5324,7 +5324,7 @@
         <v>9.6</v>
       </c>
       <c r="BA9" t="n">
-        <v>3.399999999999999</v>
+        <v>1.499999999999989</v>
       </c>
       <c r="BB9" t="n">
         <v>41.6</v>
@@ -5342,7 +5342,7 @@
         <v>11.2</v>
       </c>
       <c r="BG9" t="n">
-        <v>7</v>
+        <v>4.099999999999977</v>
       </c>
       <c r="BH9" t="n">
         <v>82.2</v>
@@ -5369,7 +5369,7 @@
         <v>-7.4</v>
       </c>
       <c r="BP9" t="n">
-        <v>68.79999999999995</v>
+        <v>40.40000000000021</v>
       </c>
       <c r="BQ9" t="n">
         <v>745.7</v>
@@ -5378,7 +5378,7 @@
         <v>3.5</v>
       </c>
       <c r="BS9" t="n">
-        <v>5.5</v>
+        <v>2.399999999999995</v>
       </c>
       <c r="BT9" t="n">
         <v>66.7</v>
@@ -5387,7 +5387,7 @@
         <v>7.2</v>
       </c>
       <c r="BV9" t="n">
-        <v>193.9000000000001</v>
+        <v>180.2999999999997</v>
       </c>
       <c r="BW9" t="n">
         <v>1809</v>
@@ -5396,7 +5396,7 @@
         <v>7.3</v>
       </c>
       <c r="BY9" t="n">
-        <v>181.3999999999999</v>
+        <v>171.199999999999</v>
       </c>
       <c r="BZ9" t="n">
         <v>1660.1</v>
@@ -5405,7 +5405,7 @@
         <v>7.4</v>
       </c>
       <c r="CB9" t="n">
-        <v>36.09999999999997</v>
+        <v>6.900000000000031</v>
       </c>
       <c r="CC9" t="n">
         <v>382.7</v>
@@ -5414,7 +5414,7 @@
         <v>20.6</v>
       </c>
       <c r="CE9" t="n">
-        <v>4</v>
+        <v>3.600000000000008</v>
       </c>
       <c r="CF9" t="n">
         <v>52.4</v>
@@ -5423,7 +5423,7 @@
         <v>3.8</v>
       </c>
       <c r="CH9" t="n">
-        <v>30.60000000000002</v>
+        <v>9.600000000000081</v>
       </c>
       <c r="CI9" t="n">
         <v>291</v>
@@ -5441,7 +5441,7 @@
         <v>-9.1</v>
       </c>
       <c r="CN9" t="n">
-        <v>27.40000000000001</v>
+        <v>8.40000000000007</v>
       </c>
       <c r="CO9" t="n">
         <v>249.3</v>
@@ -5459,7 +5459,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="CT9" t="n">
-        <v>24.90000000000003</v>
+        <v>8.70000000000007</v>
       </c>
       <c r="CU9" t="n">
         <v>406.1</v>
@@ -5468,7 +5468,7 @@
         <v>33.8</v>
       </c>
       <c r="CW9" t="n">
-        <v>20.60000000000002</v>
+        <v>7.700000000000001</v>
       </c>
       <c r="CX9" t="n">
         <v>227.1</v>
@@ -5486,7 +5486,7 @@
         <v>6.9</v>
       </c>
       <c r="DC9" t="n">
-        <v>7.700000000000003</v>
+        <v>5.5</v>
       </c>
       <c r="DD9" t="n">
         <v>82.09999999999999</v>
@@ -5495,7 +5495,7 @@
         <v>6.6</v>
       </c>
       <c r="DF9" t="n">
-        <v>86.70000000000005</v>
+        <v>46.50000000000023</v>
       </c>
       <c r="DG9" t="n">
         <v>1038.2</v>
@@ -5522,7 +5522,7 @@
         <v>15.9</v>
       </c>
       <c r="DO9" t="n">
-        <v>8.700000000000003</v>
+        <v>4.80000000000005</v>
       </c>
       <c r="DP9" t="n">
         <v>90.3</v>
@@ -5540,7 +5540,7 @@
         <v>8.6</v>
       </c>
       <c r="DU9" t="n">
-        <v>2.300000000000001</v>
+        <v>0.8999999999999992</v>
       </c>
       <c r="DV9" t="n">
         <v>26.3</v>
@@ -5567,7 +5567,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="ED9" t="n">
-        <v>7.099999999999994</v>
+        <v>4.099999999999964</v>
       </c>
       <c r="EE9" t="n">
         <v>111.1</v>
@@ -5754,7 +5754,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>17.60000000000002</v>
+        <v>13.20000000000004</v>
       </c>
       <c r="O10" t="n">
         <v>294.9</v>
@@ -5763,7 +5763,7 @@
         <v>10.8</v>
       </c>
       <c r="Q10" t="n">
-        <v>546.6999999999998</v>
+        <v>48</v>
       </c>
       <c r="R10" t="n">
         <v>6512.6</v>
@@ -5772,7 +5772,7 @@
         <v>11.7</v>
       </c>
       <c r="T10" t="n">
-        <v>58.80000000000007</v>
+        <v>3.500000000000121</v>
       </c>
       <c r="U10" t="n">
         <v>769.9</v>
@@ -5790,7 +5790,7 @@
         <v>10.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>16.19999999999999</v>
+        <v>14.39999999999995</v>
       </c>
       <c r="AA10" t="n">
         <v>180</v>
@@ -5799,7 +5799,7 @@
         <v>12.6</v>
       </c>
       <c r="AC10" t="n">
-        <v>2.5</v>
+        <v>2.300000000000002</v>
       </c>
       <c r="AD10" t="n">
         <v>33.3</v>
@@ -5835,7 +5835,7 @@
         <v>9.9</v>
       </c>
       <c r="AO10" t="n">
-        <v>1.600000000000001</v>
+        <v>1.400000000000001</v>
       </c>
       <c r="AP10" t="n">
         <v>7.9</v>
@@ -5853,7 +5853,7 @@
         <v>9.5</v>
       </c>
       <c r="AU10" t="n">
-        <v>2.800000000000075</v>
+        <v>0.70000000000018</v>
       </c>
       <c r="AV10" t="n">
         <v>467.9</v>
@@ -5880,7 +5880,7 @@
         <v>4.5</v>
       </c>
       <c r="BD10" t="n">
-        <v>11.80000000000001</v>
+        <v>0.599999999999989</v>
       </c>
       <c r="BE10" t="n">
         <v>161.2</v>
@@ -5889,7 +5889,7 @@
         <v>8.5</v>
       </c>
       <c r="BG10" t="n">
-        <v>5.899999999999991</v>
+        <v>0.7000000000000037</v>
       </c>
       <c r="BH10" t="n">
         <v>91.3</v>
@@ -5907,7 +5907,7 @@
         <v>20.2</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.3999999999999999</v>
+        <v>0.0999999999999992</v>
       </c>
       <c r="BN10" t="n">
         <v>9.5</v>
@@ -5934,7 +5934,7 @@
         <v>11.4</v>
       </c>
       <c r="BV10" t="n">
-        <v>190.8000000000002</v>
+        <v>3.700000000000301</v>
       </c>
       <c r="BW10" t="n">
         <v>1999.9</v>
@@ -5943,7 +5943,7 @@
         <v>6.3</v>
       </c>
       <c r="BY10" t="n">
-        <v>175.4000000000001</v>
+        <v>1.900000000000489</v>
       </c>
       <c r="BZ10" t="n">
         <v>1833.2</v>
@@ -5970,7 +5970,7 @@
         <v>7.2</v>
       </c>
       <c r="CH10" t="n">
-        <v>28.89999999999998</v>
+        <v>8.79999999999993</v>
       </c>
       <c r="CI10" t="n">
         <v>321.5</v>
@@ -5979,7 +5979,7 @@
         <v>6.3</v>
       </c>
       <c r="CK10" t="n">
-        <v>15.59999999999999</v>
+        <v>6.599999999999991</v>
       </c>
       <c r="CL10" t="n">
         <v>105.8</v>
@@ -5988,7 +5988,7 @@
         <v>-8.5</v>
       </c>
       <c r="CN10" t="n">
-        <v>25.09999999999997</v>
+        <v>7.199999999999928</v>
       </c>
       <c r="CO10" t="n">
         <v>272</v>
@@ -5997,7 +5997,7 @@
         <v>1</v>
       </c>
       <c r="CQ10" t="n">
-        <v>6.400000000000006</v>
+        <v>4.400000000000006</v>
       </c>
       <c r="CR10" t="n">
         <v>73.7</v>
@@ -6006,7 +6006,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="CT10" t="n">
-        <v>9.799999999999958</v>
+        <v>1.099999999999888</v>
       </c>
       <c r="CU10" t="n">
         <v>444.8</v>
@@ -6015,7 +6015,7 @@
         <v>35.5</v>
       </c>
       <c r="CW10" t="n">
-        <v>19.69999999999999</v>
+        <v>6.499999999999979</v>
       </c>
       <c r="CX10" t="n">
         <v>255.3</v>
@@ -6024,7 +6024,7 @@
         <v>18.9</v>
       </c>
       <c r="CZ10" t="n">
-        <v>17.40000000000001</v>
+        <v>14.80000000000005</v>
       </c>
       <c r="DA10" t="n">
         <v>179.5</v>
@@ -6060,7 +6060,7 @@
         <v>-2.8</v>
       </c>
       <c r="DL10" t="n">
-        <v>2.900000000000002</v>
+        <v>1.500000000000025</v>
       </c>
       <c r="DM10" t="n">
         <v>209.4</v>
@@ -6087,7 +6087,7 @@
         <v>7.5</v>
       </c>
       <c r="DU10" t="n">
-        <v>1.199999999999999</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="DV10" t="n">
         <v>29.7</v>
@@ -6096,7 +6096,7 @@
         <v>18.8</v>
       </c>
       <c r="DX10" t="n">
-        <v>7.900000000000006</v>
+        <v>6.499999999999972</v>
       </c>
       <c r="DY10" t="n">
         <v>95</v>
@@ -6114,7 +6114,7 @@
         <v>7.2</v>
       </c>
       <c r="ED10" t="n">
-        <v>6.700000000000003</v>
+        <v>1.100000000000024</v>
       </c>
       <c r="EE10" t="n">
         <v>125.3</v>
@@ -6265,7 +6265,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>2.799999999999954</v>
       </c>
       <c r="C11" t="n">
         <v>304.7</v>
@@ -6274,7 +6274,7 @@
         <v>24.1</v>
       </c>
       <c r="E11" t="n">
-        <v>4.499999999999996</v>
+        <v>2.499999999999996</v>
       </c>
       <c r="F11" t="n">
         <v>43.8</v>
@@ -6346,7 +6346,7 @@
         <v>12.3</v>
       </c>
       <c r="AC11" t="n">
-        <v>3.299999999999997</v>
+        <v>0.7999999999999972</v>
       </c>
       <c r="AD11" t="n">
         <v>36.2</v>
@@ -6355,7 +6355,7 @@
         <v>11</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.299999999999997</v>
+        <v>0.5000000000000016</v>
       </c>
       <c r="AG11" t="n">
         <v>34.3</v>
@@ -6364,7 +6364,7 @@
         <v>11.4</v>
       </c>
       <c r="AI11" t="n">
-        <v>189.3999999999996</v>
+        <v>172.5999999999985</v>
       </c>
       <c r="AJ11" t="n">
         <v>10574.8</v>
@@ -6373,7 +6373,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.7999999999999998</v>
+        <v>0.1000000000000019</v>
       </c>
       <c r="AM11" t="n">
         <v>21.4</v>
@@ -6391,7 +6391,7 @@
         <v>-6.7</v>
       </c>
       <c r="AR11" t="n">
-        <v>1.699999999999996</v>
+        <v>0.4999999999999929</v>
       </c>
       <c r="AS11" t="n">
         <v>69.5</v>
@@ -6400,7 +6400,7 @@
         <v>7.9</v>
       </c>
       <c r="AU11" t="n">
-        <v>45.20000000000005</v>
+        <v>41.6999999999998</v>
       </c>
       <c r="AV11" t="n">
         <v>506.3</v>
@@ -6409,7 +6409,7 @@
         <v>3</v>
       </c>
       <c r="AX11" t="n">
-        <v>3.5</v>
+        <v>3.099999999999994</v>
       </c>
       <c r="AY11" t="n">
         <v>63.9</v>
@@ -6427,7 +6427,7 @@
         <v>4.3</v>
       </c>
       <c r="BD11" t="n">
-        <v>7.1</v>
+        <v>0.9000000000000004</v>
       </c>
       <c r="BE11" t="n">
         <v>174.5</v>
@@ -6436,7 +6436,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="BG11" t="n">
-        <v>6.500000000000019</v>
+        <v>0.6000000000000281</v>
       </c>
       <c r="BH11" t="n">
         <v>99.8</v>
@@ -6445,7 +6445,7 @@
         <v>9.5</v>
       </c>
       <c r="BJ11" t="n">
-        <v>21.79999999999996</v>
+        <v>14.59999999999992</v>
       </c>
       <c r="BK11" t="n">
         <v>398.9</v>
@@ -6454,7 +6454,7 @@
         <v>23</v>
       </c>
       <c r="BM11" t="n">
-        <v>1.199999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="BN11" t="n">
         <v>10.2</v>
@@ -6463,7 +6463,7 @@
         <v>-14.3</v>
       </c>
       <c r="BP11" t="n">
-        <v>58.10000000000002</v>
+        <v>34.89999999999998</v>
       </c>
       <c r="BQ11" t="n">
         <v>893.1</v>
@@ -6499,7 +6499,7 @@
         <v>5.5</v>
       </c>
       <c r="CB11" t="n">
-        <v>13.80000000000001</v>
+        <v>11.39999999999993</v>
       </c>
       <c r="CC11" t="n">
         <v>470.5</v>
@@ -6553,7 +6553,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="CT11" t="n">
-        <v>24</v>
+        <v>4.400000000000082</v>
       </c>
       <c r="CU11" t="n">
         <v>486.9</v>
@@ -6589,7 +6589,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="DF11" t="n">
-        <v>81.79999999999995</v>
+        <v>22.60000000000005</v>
       </c>
       <c r="DG11" t="n">
         <v>1257.9</v>
@@ -6598,7 +6598,7 @@
         <v>6</v>
       </c>
       <c r="DI11" t="n">
-        <v>0.8999999999999984</v>
+        <v>0.09999999999999765</v>
       </c>
       <c r="DJ11" t="n">
         <v>15.1</v>
@@ -6607,7 +6607,7 @@
         <v>0.7</v>
       </c>
       <c r="DL11" t="n">
-        <v>3.800000000000018</v>
+        <v>0.9000000000000159</v>
       </c>
       <c r="DM11" t="n">
         <v>230.7</v>
@@ -6616,7 +6616,7 @@
         <v>15</v>
       </c>
       <c r="DO11" t="n">
-        <v>8.399999999999991</v>
+        <v>3.299999999999982</v>
       </c>
       <c r="DP11" t="n">
         <v>102.2</v>
@@ -6634,7 +6634,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="DU11" t="n">
-        <v>3.199999999999999</v>
+        <v>0.8000000000000009</v>
       </c>
       <c r="DV11" t="n">
         <v>33.1</v>
@@ -6652,7 +6652,7 @@
         <v>10.4</v>
       </c>
       <c r="EA11" t="n">
-        <v>6.699999999999932</v>
+        <v>2.599999999999795</v>
       </c>
       <c r="EB11" t="n">
         <v>777</v>
